--- a/outputs/Master_Editorial_Calendar.xlsx
+++ b/outputs/Master_Editorial_Calendar.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,128 +488,128 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>微博</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>活力π实验室</t>
+          <t>AR实验室探秘之旅</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>【营养师拆解】为什么程序员需要缓释能量棒？</t>
+          <t>「北极云莓干细胞」AR扫码实景解析</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>图文</t>
+          <t>短视频+图文</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>点击了解海盐黑巧味的科学配方</t>
+          <t>点击主页体验AR功能</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>结合程序员用户画像痛点</t>
+          <t>配合中科院白皮书发布</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-10-03</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>健身前后的最佳拍档</t>
+          <t>夜间ASMR护肤仪式</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>健身小白必看！运动前后如何正确补充能量</t>
+          <t>磁吸面膜「咔嗒」声沉浸式体验</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>短视频</t>
+          <t>ASMR视频</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>留言分享你的健身补给方案</t>
+          <t>限时赠月光明信片</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>展示王静用户画像场景</t>
+          <t>使用#月光疗愈时刻话题</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-10-04</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>微信公众号</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>天然食材溯源之旅</t>
+          <t>成分党陪审团计划</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>深入云南：我们如何挑选有机燕麦</t>
+          <t>会员专享：在线成分研讨会报名</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>长图文</t>
+          <t>图文推送</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>文末抽奖送限量体验装</t>
+          <t>立即加入科研陪审团</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>突出可持续性核心价值</t>
+          <t>李媛博士主持</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,489 +619,489 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>办公室能量争夺战</t>
+          <t>通勤急救术系列</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>996救命指南：3分钟能量补给方案</t>
+          <t>职场妈妈实测：3分钟磁吸面膜术</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>图文+清单</t>
+          <t>对比视频</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>带话题#活力派时刻#晒工位零食</t>
+          <t>领取效率手册模板</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>针对张伟用户画像</t>
+          <t>@陈玥Persona出演</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-10-06</t>
+          <t>2023-11-09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>微博</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>活力π科学挑战</t>
+          <t>碳足迹可视化报告</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>血糖波动测试：活力π vs 传统巧克力棒</t>
+          <t>你的面膜包装能种几棵云莓树？</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>实验对比视频</t>
+          <t>信息图动画</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>点击参与盲测活动报名</t>
+          <t>测测你的环保值</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>可视化缓释能量优势</t>
+          <t>关联订阅装促销</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-10-07</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>限量版礼盒</t>
+          <t>植物学家闺蜜日记</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>开箱！秋季限定抹茶拿铁味礼盒</t>
+          <t>深夜实验室：微囊化技术手札</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>开箱视频</t>
+          <t>音频日记</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>限时预售价199元/盒</t>
+          <t>留言获取完整笔记</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>周末发布时间</t>
+          <t>苏岚Persona配音</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>2023-11-11</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>微博</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>程序员能量补给站</t>
+          <t>空瓶改造手工课</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>代码卡壳？试试这个「debug能量套餐」</t>
+          <t>周末DIY：面膜空瓶变香薰灯</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>趣味图文</t>
+          <t>直播教程</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>转发抽奖送程序员大礼包</t>
+          <t>晒图抽限定套装</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>幽默化解痛点</t>
+          <t>需提前预约</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-10-10</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>活力π口味盲测</t>
+          <t>极简包装设计大赛</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>盲测挑战：你能猜出这些天然甜味剂吗？</t>
+          <t>粉丝共创：2024环保包装方案</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>互动视频</t>
+          <t>互动投票</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>留言猜对抽奖</t>
+          <t>获胜方案将量产</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>强调无添加蔗糖</t>
+          <t>评委含赵阳Persona</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>2023-11-14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>微信公众号</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>职场能量时刻</t>
+          <t>#月光疗愈明信片挑战</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>高管私藏：会议马拉松的能量管理术</t>
+          <t>晒出你的睡前疗愈角（附产品）</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>访谈文章</t>
+          <t>UGC征集</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>领取白领能量补给手册</t>
+          <t>最佳3名获年卡</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>瞄准王静职业场景</t>
+          <t>需带双重话题</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023-10-12</t>
+          <t>2023-11-15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>微博</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>能量棒DIY工坊</t>
+          <t>《职场妈妈效率手册》</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>家里就能做！健康能量棒5种变形吃法</t>
+          <t>第三章：哺乳期成分安全指南</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>步骤图解</t>
+          <t>PDF下载</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>带话题秀你的创意吃法</t>
+          <t>定制家庭装限免</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>增加UGC可能性</t>
+          <t>含过敏急救通道</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023-10-13</t>
+          <t>2023-11-16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>活力π实验室</t>
+          <t>成分党陪审团计划</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>成分党必修课：读懂营养标签的5个关键</t>
+          <t>用户实测：48小时水分值变化</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>信息图表</t>
+          <t>实验室vlog</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>保存备用卡</t>
+          <t>申请下次实验资格</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>强化专业形象</t>
+          <t>林薇Persona监制</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-10-14</t>
+          <t>2023-11-17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>微信公众号</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>天然食材溯源之旅</t>
+          <t>通勤急救术系列</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>探访黑巧产地：从可可豆到能量棒</t>
+          <t>地铁上的磁吸面膜翻车实录</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>纪录片式推文</t>
+          <t>搞笑短视频</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>文末福利券</t>
+          <t>投稿你的急救妙招</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>周末深度内容</t>
+          <t>预热周末促销</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2023-10-16</t>
+          <t>2023-11-18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>微博</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>办公室能量争夺战</t>
+          <t>空瓶改造手工课</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>投票：哪种办公场景最需要能量补给？</t>
+          <t>进阶版：空瓶垂直花园制作</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>投票互动</t>
+          <t>图文步骤</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>参与投票抽周边</t>
+          <t>预约线下工作坊</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>简单互动内容</t>
+          <t>需5个空瓶兑换</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023-10-17</t>
+          <t>2023-11-19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>健身前后的最佳拍档</t>
+          <t>夜间ASMR护肤仪式</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>健身教练私教课：能量补充时间表</t>
+          <t>云莓精华液滴落声音疗</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>知识卡片</t>
+          <t>4K特写视频</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>收藏备用</t>
+          <t>购买送同款音源</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>专业实用内容</t>
+          <t>配合助眠场景</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023-10-18</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>微博</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>限量版礼盒</t>
+          <t>植物学家闺蜜日记</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>倒计时3天！抹茶拿铁味即将售罄</t>
+          <t>阳台植物实验室周报Vol.1</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>促销海报</t>
+          <t>拼贴风plog</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>立即抢购</t>
+          <t>留言下周实验选题</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>制造紧迫感</t>
+          <t>苏岚Persona彩蛋</t>
         </is>
       </c>
     </row>

--- a/outputs/Master_Editorial_Calendar.xlsx
+++ b/outputs/Master_Editorial_Calendar.xlsx
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,39 +493,39 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AR实验室探秘之旅</t>
+          <t>女科学家成分百科</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>「北极云莓干细胞」AR扫码实景解析</t>
+          <t>"北极云莓：极夜蓄能的抗氧黑科技"</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>短视频+图文</t>
+          <t>图文长文</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>点击主页体验AR功能</t>
+          <t>点击进入区块链溯源小程序</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>配合中科院白皮书发布</t>
+          <t>附实验室显微摄影</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-11-06</t>
+          <t>2023-10-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,39 +535,39 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>夜间ASMR护肤仪式</t>
+          <t>月光疗愈ASMR电台</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>磁吸面膜「咔嗒」声沉浸式体验</t>
+          <t>"磁吸膜布贴合声｜睡前10分钟解压仪式"</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ASMR视频</t>
+          <t>短视频</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>限时赠月光明信片</t>
+          <t>参与#睡前疗愈挑战</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>使用#月光疗愈时刻话题</t>
+          <t>使用品牌音效库</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-11-07</t>
+          <t>2023-10-05</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20:15</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -577,39 +577,39 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>成分党陪审团计划</t>
+          <t>成分党黑科技解密</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>会员专享：在线成分研讨会报名</t>
+          <t>微囊技术白皮书（会员专享）</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>图文推送</t>
+          <t>PDF文档</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>立即加入科研陪审团</t>
+          <t>注册会员解锁全文</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>李媛博士主持</t>
+          <t>含李媛博士批注</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-11-08</t>
+          <t>2023-10-07</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -619,39 +619,39 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>通勤急救术系列</t>
+          <t>可持续艺术包装大赛</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>职场妈妈实测：3分钟磁吸面膜术</t>
+          <t>"空瓶改造工作坊直播：咖啡渣笔筒教学"</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>对比视频</t>
+          <t>直播</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>领取效率手册模板</t>
+          <t>带话题#ECOArt参赛</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>@陈玥Persona出演</t>
+          <t>联名本地艺术家</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-11-09</t>
+          <t>2023-10-09</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -661,39 +661,39 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>碳足迹可视化报告</t>
+          <t>磁吸膜布解压挑战</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>你的面膜包装能种几棵云莓树？</t>
+          <t>"3秒贴膜挑战赛｜测测你的手残指数"</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>信息图动画</t>
+          <t>互动贴纸</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>测测你的环保值</t>
+          <t>@好友PK赢碳积分</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>关联订阅装促销</t>
+          <t>投放DOU+加热</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>2023-10-11</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -703,39 +703,39 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>植物学家闺蜜日记</t>
+          <t>熬夜肌急救数据</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>深夜实验室：微囊化技术手札</t>
+          <t>"28天VISIA检测：月光面膜褪红数据揭秘"</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>音频日记</t>
+          <t>信息图</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>留言获取完整笔记</t>
+          <t>预约线下皮肤检测</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>苏岚Persona配音</t>
+          <t>医疗认证背书</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-11-11</t>
+          <t>2023-10-13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -745,39 +745,39 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>空瓶改造手工课</t>
+          <t>区块链溯源直播</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>周末DIY：面膜空瓶变香薰灯</t>
+          <t>"实验室开放日：扫码追踪成分的一生"</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>直播教程</t>
+          <t>直播连麦</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>晒图抽限定套装</t>
+          <t>留言提问抽试用装</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>需提前预约</t>
+          <t>技术总监出镜</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-11-13</t>
+          <t>2023-10-15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -787,123 +787,123 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>极简包装设计大赛</t>
+          <t>极地植物纪录片</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>粉丝共创：2024环保包装方案</t>
+          <t>"挪威实地拍摄：云莓采摘的极昼瞬间"</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>互动投票</t>
+          <t>纪实短片</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>获胜方案将量产</t>
+          <t>领取极地护肤手册</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>评委含赵阳Persona</t>
+          <t>4K航拍画面</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023-11-14</t>
+          <t>2023-10-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>#月光疗愈明信片挑战</t>
+          <t>碳足迹兑换计划</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>晒出你的睡前疗愈角（附产品）</t>
+          <t>"会员专享：100g碳足迹=1片月光面膜"</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>UGC征集</t>
+          <t>H5互动</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>最佳3名获年卡</t>
+          <t>立即绑定蚂蚁森林</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>需带双重话题</t>
+          <t>需客服引导</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023-11-15</t>
+          <t>2023-10-19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>《职场妈妈效率手册》</t>
+          <t>成分党问答</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>第三章：哺乳期成分安全指南</t>
+          <t>"快问快答｜冻干粉vs微囊技术哪家强？"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PDF下载</t>
+          <t>投票互动</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>定制家庭装限免</t>
+          <t>评论晒单抽正装</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>含过敏急救通道</t>
+          <t>@Kenji成分控联动</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023-11-16</t>
+          <t>2023-10-21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -913,123 +913,123 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>成分党陪审团计划</t>
+          <t>碳盲盒快闪店</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>用户实测：48小时水分值变化</t>
+          <t>"北京三里屯打卡：开盲盒测你的碳人格"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>实验室vlog</t>
+          <t>探店vlog</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>申请下次实验资格</t>
+          <t>预约线下体验</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>林薇Persona监制</t>
+          <t>限量100份赠品</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-11-17</t>
+          <t>2023-10-23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>通勤急救术系列</t>
+          <t>女科学家日记</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>地铁上的磁吸面膜翻车实录</t>
+          <t>"李媛手记：第37次冻干实验失败记录"</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>搞笑短视频</t>
+          <t>图文故事</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>投稿你的急救妙招</t>
+          <t>加入产品共创群</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>预热周末促销</t>
+          <t>真实实验室照片</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2023-11-18</t>
+          <t>2023-10-25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>空瓶改造手工课</t>
+          <t>环保价值计算</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>进阶版：空瓶垂直花园制作</t>
+          <t>"1瓶=省3度电｜你的环保贡献可视化"</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>图文步骤</t>
+          <t>信息长图</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>预约线下工作坊</t>
+          <t>生成专属环保报告</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>需5个空瓶兑换</t>
+          <t>接入碳阻迹API</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023-11-19</t>
+          <t>2023-10-27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1039,69 +1039,69 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>夜间ASMR护肤仪式</t>
+          <t>ASMR电台特别版</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>云莓精华液滴落声音疗</t>
+          <t>"雨声+云莓香氛｜失眠患者的福音"</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4K特写视频</t>
+          <t>沉浸视频</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>购买送同款音源</t>
+          <t>购买香薰套装</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>配合助眠场景</t>
+          <t>关联小黄车</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>植物学家闺蜜日记</t>
+          <t>会员福利日</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>阳台植物实验室周报Vol.1</t>
+          <t>"双11预告：碳积分兑换年度礼盒"</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>拼贴风plog</t>
+          <t>促销海报</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>留言下周实验选题</t>
+          <t>激活休眠会员</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>苏岚Persona彩蛋</t>
+          <t>限时72小时</t>
         </is>
       </c>
     </row>

--- a/outputs/Master_Editorial_Calendar.xlsx
+++ b/outputs/Master_Editorial_Calendar.xlsx
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>周一</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,34 +493,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>女科学家成分百科</t>
+          <t>微囊实验室</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>"北极云莓：极夜蓄能的抗氧黑科技"</t>
+          <t>"12小时微囊释润延时摄影"</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>图文长文</t>
+          <t>视频</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>点击进入区块链溯源小程序</t>
+          <t>"点击看北极云莓如何工作"</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>附实验室显微摄影</t>
+          <t>实验室实拍+字幕解析</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-10-03</t>
+          <t>周二</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -535,573 +535,573 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>月光疗愈ASMR电台</t>
+          <t>月光面膜挑战</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>"磁吸膜布贴合声｜睡前10分钟解压仪式"</t>
+          <t>"熬夜肌VS蓝莓实验第1天"</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>短视频</t>
+          <t>对比视频</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>参与#睡前疗愈挑战</t>
+          <t>"领试用装加入挑战"</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>使用品牌音效库</t>
+          <t>使用前后3秒对比</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-10-05</t>
+          <t>周三</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>成分党黑科技解密</t>
+          <t>碳足迹追踪</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>微囊技术白皮书（会员专享）</t>
+          <t>"扫描二维码查你的面膜旅程"</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>PDF文档</t>
+          <t>图文</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>注册会员解锁全文</t>
+          <t>"晒截图抽环保礼盒"</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>含李媛博士批注</t>
+          <t>需展示包装特写</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-10-07</t>
+          <t>周四</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>微博</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>可持续艺术包装大赛</t>
+          <t>Eco透明挑战</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>"空瓶改造工作坊直播：咖啡渣笔筒教学"</t>
+          <t>"空瓶种树计划进度公示"</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>直播</t>
+          <t>长图文</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>带话题#ECOArt参赛</t>
+          <t>"带话题发空瓶照"</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>联名本地艺术家</t>
+          <t>配合UGC榜单发布</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-10-09</t>
+          <t>周五</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>抖音</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>磁吸膜布解压挑战</t>
+          <t>北极云莓日记</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>"3秒贴膜挑战赛｜测测你的手残指数"</t>
+          <t>"冰川下的超级抗氧化战士"</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>互动贴纸</t>
+          <t>漫画图解</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>@好友PK赢碳积分</t>
+          <t>"留言猜ORAC值"</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>投放DOU+加热</t>
+          <t>埋成分教育信息</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-10-11</t>
+          <t>周六</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>熬夜肌急救数据</t>
+          <t>分装试用</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>"28天VISIA检测：月光面膜褪红数据揭秘"</t>
+          <t>"七夕限定试用礼盒开箱"</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>信息图</t>
+          <t>直播切片</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>预约线下皮肤检测</t>
+          <t>"抢9.9元体验装"</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>医疗认证背书</t>
+          <t>强调单片成本</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-10-13</t>
+          <t>周日</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>区块链溯源直播</t>
+          <t>B Corp纪录片</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>"实验室开放日：扫码追踪成分的一生"</t>
+          <t>"我们的零残忍实验室"</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>直播连麦</t>
+          <t>15秒预告片</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>留言提问抽试用装</t>
+          <t>"预约完整版"</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>技术总监出镜</t>
+          <t>国际团队采访</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-10-15</t>
+          <t>周一</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>抖音</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>极地植物纪录片</t>
+          <t>肌肤减碳计算</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>"挪威实地拍摄：云莓采摘的极昼瞬间"</t>
+          <t>"敷面膜=少排10g碳"</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>纪实短片</t>
+          <t>计算器H5截图</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>领取极地护肤手册</t>
+          <t>"测你的美容碳足迹"</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>4K航拍画面</t>
+          <t>绑定会员系统</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023-10-17</t>
+          <t>周二</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>21:30</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>碳足迹兑换计划</t>
+          <t>月光面膜挑战</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>"会员专享：100g碳足迹=1片月光面膜"</t>
+          <t>"第7天毛孔变化实录"</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>H5互动</t>
+          <t>用户UGC合集</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>立即绑定蚂蚁森林</t>
+          <t>"发对比图@我们"</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>需客服引导</t>
+          <t>重点展示KOC</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023-10-19</t>
+          <t>周三</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>微博</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>成分党问答</t>
+          <t>互动投票</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>"快问快答｜冻干粉vs微囊技术哪家强？"</t>
+          <t>"环保包装你选哪款？"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>投票互动</t>
+          <t>微博投票</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>评论晒单抽正装</t>
+          <t>"评论抽定制款"</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>@Kenji成分控联动</t>
+          <t>为新品造势</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023-10-21</t>
+          <t>周四</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>20:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>抖音</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>碳盲盒快闪店</t>
+          <t>碳积分计划</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>"北京三里屯打卡：开盲盒测你的碳人格"</t>
+          <t>"5个空瓶=种1棵树"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>探店vlog</t>
+          <t>信息长图</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>预约线下体验</t>
+          <t>"tag闺蜜组队参与"</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>限量100份赠品</t>
+          <t>显示实时计数器</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-10-23</t>
+          <t>周五</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>女科学家日记</t>
+          <t>技术问答</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>"李媛手记：第37次冻干实验失败记录"</t>
+          <t>"微囊化技术10问10答"</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>图文故事</t>
+          <t>图文笔记</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>加入产品共创群</t>
+          <t>"揪3人送正装"</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>真实实验室照片</t>
+          <t>引用专利号</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2023-10-25</t>
+          <t>周六</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>环保价值计算</t>
+          <t>熬夜实验</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>"1瓶=省3度电｜你的环保贡献可视化"</t>
+          <t>"凌晨3点肌肤监测数据"</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>信息长图</t>
+          <t>数据可视化</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>生成专属环保报告</t>
+          <t>"限时申领小样"</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>接入碳阻迹API</t>
+          <t>合作技术KOL</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023-10-27</t>
+          <t>周日</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>抖音</t>
+          <t>微博</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ASMR电台特别版</t>
+          <t>UGC征集</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>"雨声+云莓香氛｜失眠患者的福音"</t>
+          <t>"晒出你的月光时刻"</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>沉浸视频</t>
+          <t>话题互动</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>购买香薰套装</t>
+          <t>"转评赞抽奖"</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>关联小黄车</t>
+          <t>绑定七夕节点</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>周一</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>微信</t>
+          <t>全平台</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>会员福利日</t>
+          <t>挑战总结</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>"双11预告：碳积分兑换年度礼盒"</t>
+          <t>"7天挑战TOP10成果"</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>促销海报</t>
+          <t>九宫格拼图</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>激活休眠会员</t>
+          <t>"下载完整报告"</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>限时72小时</t>
+          <t>同步官网链接</t>
         </is>
       </c>
     </row>

--- a/outputs/Master_Editorial_Calendar.xlsx
+++ b/outputs/Master_Editorial_Calendar.xlsx
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>周一</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,34 +493,34 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>微囊实验室</t>
+          <t>AR微囊渗透实验室</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>"12小时微囊释润延时摄影"</t>
+          <t>"亲眼见证微囊爆破瞬间"</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>视频</t>
+          <t>AR滤镜互动</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"点击看北极云莓如何工作"</t>
+          <t>"扫码验证你的皮肤吸收率"</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>实验室实拍+字幕解析</t>
+          <t>配合KOC首发体验</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>周二</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -535,34 +535,34 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>月光面膜挑战</t>
+          <t>磁吸瞬吸科技PK赛</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>"熬夜肌VS蓝莓实验第1天"</t>
+          <t>"5秒吸精华vs传统面膜"</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>对比视频</t>
+          <t>对比实验视频</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"领试用装加入挑战"</t>
+          <t>"挑战#瞬吸王者"</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>使用前后3秒对比</t>
+          <t>@Farmacy粉丝定向投放</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>周三</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -577,165 +577,165 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>碳足迹追踪</t>
+          <t>云莓种植认领直播</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>"扫描二维码查你的面膜旅程"</t>
+          <t>"2037号云莓种植实时连线"</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>图文</t>
+          <t>延时摄影直播</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"晒截图抽环保礼盒"</t>
+          <t>"截屏认领你的树莓"</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>需展示包装特写</t>
+          <t>北欧农场主出镜</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>周四</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>微博</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Eco透明挑战</t>
+          <t>成分透明化纪录片</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>"空瓶种树计划进度公示"</t>
+          <t>"实验室的第297次失败"</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>长图文</t>
+          <t>纪实短片</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"带话题发空瓶照"</t>
+          <t>"留言解密你想检验的成分"</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>配合UGC榜单发布</t>
+          <t>李媛博士彩蛋</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>周五</t>
+          <t>2023-11-23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>12:45</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>北极云莓日记</t>
+          <t>月光仪式感短剧</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>"冰川下的超级抗氧化战士"</t>
+          <t>"深夜加班党的3分钟SPA"</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>漫画图解</t>
+          <t>情景剧</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"留言猜ORAC值"</t>
+          <t>"拍同款赢月光礼盒"</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>埋成分教育信息</t>
+          <t>植入会员体系福利</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>周六</t>
+          <t>2023-11-24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>抖音</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>分装试用</t>
+          <t>抗氧化成分打假挑战</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>"七夕限定试用礼盒开箱"</t>
+          <t>"教你识破ORAC值谎言"</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>直播切片</t>
+          <t>图文对比</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"抢9.9元体验装"</t>
+          <t>"晒出你的检测结果"</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>强调单片成本</t>
+          <t>赠送试纸套装</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>周日</t>
+          <t>2023-11-25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -745,165 +745,165 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>B Corp纪录片</t>
+          <t>空瓶换碳积分计划</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>"我们的零残忍实验室"</t>
+          <t>"上次空瓶减排1.2kgCO₂"</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>15秒预告片</t>
+          <t>信息长图</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"预约完整版"</t>
+          <t>"扫码加入碳账户"</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>国际团队采访</t>
+          <t>显示用户累计减排排名</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>周一</t>
+          <t>2023-11-26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>肌肤减碳计算</t>
+          <t>校园KOC培育计划</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>"敷面膜=少排10g碳"</t>
+          <t>"学生党实测月光面膜"</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>计算器H5截图</t>
+          <t>UGC混剪</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"测你的美容碳足迹"</t>
+          <t>"带话题#科学平替挑战"</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>绑定会员系统</t>
+          <t>定向高校投流</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>周二</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>21:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>抖音</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>月光面膜挑战</t>
+          <t>SGS认证编码验证器</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>"第7天毛孔变化实录"</t>
+          <t>"输入编码查我的检测报告"</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>用户UGC合集</t>
+          <t>工具教程</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"发对比图@我们"</t>
+          <t>"验证后解锁AR效果"</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>重点展示KOC</t>
+          <t>关联产品详情页</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>周三</t>
+          <t>2023-11-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>13:20</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>微博</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>互动投票</t>
+          <t>月光面膜成本计算器</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>"环保包装你选哪款？"</t>
+          <t>"1片=影院护理1/3价格"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>微博投票</t>
+          <t>动态信息图</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"评论抽定制款"</t>
+          <t>"算算你的美丽账单"</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>为新品造势</t>
+          <t>对比竞品单价</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>周四</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -913,39 +913,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>碳积分计划</t>
+          <t>AR微囊渗透实验室</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>"5个空瓶=种1棵树"</t>
+          <t>"北极光下的成分之旅"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>信息长图</t>
+          <t>特效模板</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"tag闺蜜组队参与"</t>
+          <t>"@好友测试吸收力"</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>显示实时计数器</t>
+          <t>北欧极光特效</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>周五</t>
+          <t>2023-11-30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -955,39 +955,39 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>技术问答</t>
+          <t>用户问答</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>"微囊化技术10问10答"</t>
+          <t>"关于微囊技术你好奇什么"</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>图文笔记</t>
+          <t>评论区互动</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"揪3人送正装"</t>
+          <t>"揪3人送检测试纸"</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>引用专利号</t>
+          <t>植物学家团队回复</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>周六</t>
+          <t>2023-12-01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -997,111 +997,111 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>熬夜实验</t>
+          <t>空瓶换碳积分计划</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>"凌晨3点肌肤监测数据"</t>
+          <t>"空瓶再造过程全记录"</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>数据可视化</t>
+          <t>工厂探访视频</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>"限时申领小样"</t>
+          <t>"预约上门回收"</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>合作技术KOL</t>
+          <t>展示再生原料制品</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>周日</t>
+          <t>2023-12-02</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>22:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>微博</t>
+          <t>Instagram</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>UGC征集</t>
+          <t>月光仪式感短剧</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>"晒出你的月光时刻"</t>
+          <t>"跨年夜的月光SPA约会"</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>话题互动</t>
+          <t>续集剧集</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>"转评赞抽奖"</t>
+          <t>"晒同款场景抽奖"</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>绑定七夕节点</t>
+          <t>植入限量礼盒</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>周一</t>
+          <t>2023-12-03</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>全平台</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>挑战总结</t>
+          <t>成分打假挑战</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>"7天挑战TOP10成果"</t>
+          <t>"网红精华的惊天pH值"</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>九宫格拼图</t>
+          <t>实验室对比</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>"下载完整报告"</t>
+          <t>"申请检测你的护肤品"</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>同步官网链接</t>
+          <t>联动@Chemist_Angela</t>
         </is>
       </c>
     </row>

--- a/outputs/Master_Editorial_Calendar.xlsx
+++ b/outputs/Master_Editorial_Calendar.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-11-06</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -488,39 +488,39 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>AR微囊渗透实验室</t>
+          <t>碳足迹追踪挑战</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>"亲眼见证微囊爆破瞬间"</t>
+          <t>"扫一扫面膜身份证，减碳量实时可见"</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>AR滤镜互动</t>
+          <t>短视频+挑战赛</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>"扫码验证你的皮肤吸收率"</t>
+          <t>参与挑战赢碳积分</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>配合KOC首发体验</t>
+          <t>结合工厂实拍</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-11-20</t>
+          <t>2023-11-07</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -530,39 +530,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>抖音</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>磁吸瞬吸科技PK赛</t>
+          <t>李媛博士成分实验室</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>"5秒吸精华vs传统面膜"</t>
+          <t>"北极云莓VS蓝莓：SGS报告深度解读"</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>对比实验视频</t>
+          <t>图文+直播切片</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>"挑战#瞬吸王者"</t>
+          <t>点击预约本月直播</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>@Farmacy粉丝定向投放</t>
+          <t>突出检测原始数据</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-08</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -572,536 +572,494 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>云莓种植认领直播</t>
+          <t>碳积分限时兑换</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>"2037号云莓种植实时连线"</t>
+          <t>"双11预热：100碳积分兑换旅行装"</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>延时摄影直播</t>
+          <t>H5互动页面</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>"截屏认领你的树莓"</t>
+          <t>立即兑换</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>北欧农场主出镜</t>
+          <t>会员专享</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-11-22</t>
+          <t>2023-11-10</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>21:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>成分透明化纪录片</t>
+          <t>磁吸面膜办公秀</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>"实验室的第297次失败"</t>
+          <t>"会议间隙3分钟站立护肤挑战"</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>纪实短片</t>
+          <t>达人实拍视频</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>"留言解密你想检验的成分"</t>
+          <t>带话题#职场高效护肤</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>李媛博士彩蛋</t>
+          <t>@效率党KOC联动</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-11-23</t>
+          <t>2023-11-11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>抖音</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>月光仪式感短剧</t>
+          <t>空瓶改造艺术展</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>"深夜加班党的3分钟SPA"</t>
+          <t>"旧瓶DIY教程：北极熊夜灯制作"</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>情景剧</t>
+          <t>步骤图文</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>"拍同款赢月光礼盒"</t>
+          <t>晒作品获200积分</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>植入会员体系福利</t>
+          <t>需标注回收渠道</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2023-11-24</t>
+          <t>2023-11-13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>抗氧化成分打假挑战</t>
+          <t>面膜黑科技解密</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>"教你识破ORAC值谎言"</t>
+          <t>"磁吸技术白皮书（简化版）"</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>图文对比</t>
+          <t>信息长图</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>"晒出你的检测结果"</t>
+          <t>领取完整版报告</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>赠送试纸套装</t>
+          <t>引导官网注册</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2023-11-25</t>
+          <t>2023-11-15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>20:45</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>空瓶换碳积分计划</t>
+          <t>闺蜜团低碳护肤</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>"上次空瓶减排1.2kgCO₂"</t>
+          <t>"3人成团碳足迹PK赛"</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>信息长图</t>
+          <t>直播连麦</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>"扫码加入碳账户"</t>
+          <t>点击加入护肤团</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>显示用户累计减排排名</t>
+          <t>李媛博士客串</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2023-11-26</t>
+          <t>2023-11-17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>抖音</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>校园KOC培育计划</t>
+          <t>抗初老有机面膜盲测</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>"学生党实测月光面膜"</t>
+          <t>"28天实测：月光面膜VS某大牌"</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>UGC混剪</t>
+          <t>对比视频</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>"带话题#科学平替挑战"</t>
+          <t>投票猜结果</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>定向高校投流</t>
+          <t>埋SEO关键词</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2023-11-27</t>
+          <t>2023-11-18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>22:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SGS认证编码验证器</t>
+          <t>北极熊救援计划</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>"输入编码查我的检测报告"</t>
+          <t>"每售10盒捐赠1㎡植林"</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>工具教程</t>
+          <t>动画短片</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>"验证后解锁AR效果"</t>
+          <t>转发助力公益</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>关联产品详情页</t>
+          <t>关联碳足迹数据</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2023-11-28</t>
+          <t>2023-11-20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>20:45</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>抖音</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>月光面膜成本计算器</t>
+          <t>月光面膜成分盲盒</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>"1片=影院护理1/3价格"</t>
+          <t>"拆盒测试：你的肌肤需要哪种植物干细胞"</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>动态信息图</t>
+          <t>互动测试</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>"算算你的美丽账单"</t>
+          <t>分享结果领券</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>对比竞品单价</t>
+          <t>结合用户画像</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>AR微囊渗透实验室</t>
+          <t>李媛博士成分实验室</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>"北极光下的成分之旅"</t>
+          <t>"用户TOP3成分疑问解答"</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>特效模板</t>
+          <t>问答合集</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>"@好友测试吸收力"</t>
+          <t>留言新问题</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>北欧极光特效</t>
+          <t>预告直播抽奖</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2023-11-30</t>
+          <t>2023-11-24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>21:00</t>
+          <t>21:15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>小红书</t>
+          <t>抖音</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>用户问答</t>
+          <t>碳足迹追踪挑战</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>"关于微囊技术你好奇什么"</t>
+          <t>"晒单截图生成减碳证书"</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>评论区互动</t>
+          <t>模板视频</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>"揪3人送检测试纸"</t>
+          <t>生成专属证书</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>植物学家团队回复</t>
+          <t>强化社交属性</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2023-12-01</t>
+          <t>2023-11-25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>抖音</t>
+          <t>小红书</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>空瓶换碳积分计划</t>
+          <t>空瓶改造艺术展</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>"空瓶再造过程全记录"</t>
+          <t>"粉丝作品展：最佳创意投票"</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>工厂探访视频</t>
+          <t>投票活动</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>"预约上门回收"</t>
+          <t>为TA打call</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>展示再生原料制品</t>
+          <t>前3名奖年度套装</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2023-12-02</t>
+          <t>2023-11-27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>20:30</t>
+          <t>12:45</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Instagram</t>
+          <t>微信</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>月光仪式感短剧</t>
+          <t>闺蜜团低碳护肤</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>"跨年夜的月光SPA约会"</t>
+          <t>"组团下单额外赠检测套装"</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>续集剧集</t>
+          <t>拼团H5</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>"晒同款场景抽奖"</t>
+          <t>邀请2位闺蜜</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>植入限量礼盒</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2023-12-03</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>15:00</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>小红书</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>成分打假挑战</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>"网红精华的惊天pH值"</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>实验室对比</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>"申请检测你的护肤品"</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>联动@Chemist_Angela</t>
+          <t>限时48小时</t>
         </is>
       </c>
     </row>
